--- a/Diagramacion/Semana7/modeloDatosTP5EJ17.xlsx
+++ b/Diagramacion/Semana7/modeloDatosTP5EJ17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Documents\GitHub\Trayecto-Formativo-Saladillo\Diagramacion\Semana7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9361EB9-DBF2-4CBF-9D10-DE856E45F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DAAAD0-1249-44C8-A131-93B3F3294CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7FA63BEA-DCDC-4731-8D7A-CB4159F8904C}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="11940" windowHeight="15585" activeTab="1" xr2:uid="{7FA63BEA-DCDC-4731-8D7A-CB4159F8904C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -219,7 +219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -228,16 +227,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -579,7 +578,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,10 +609,10 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
         <v>98</v>
       </c>
     </row>
@@ -621,10 +620,10 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>77</v>
       </c>
     </row>
@@ -632,10 +631,10 @@
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>112</v>
       </c>
     </row>
@@ -643,10 +642,10 @@
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7">
         <v>45</v>
       </c>
     </row>
@@ -654,10 +653,10 @@
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
         <v>78</v>
       </c>
     </row>
@@ -665,10 +664,10 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
         <v>85</v>
       </c>
     </row>
@@ -676,10 +675,10 @@
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>15</v>
       </c>
     </row>
@@ -687,10 +686,10 @@
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>45</v>
       </c>
     </row>
@@ -698,10 +697,10 @@
       <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
         <v>45</v>
       </c>
     </row>
@@ -709,10 +708,10 @@
       <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
         <v>56</v>
       </c>
     </row>
@@ -720,10 +719,10 @@
       <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>12</v>
       </c>
     </row>
@@ -731,10 +730,10 @@
       <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
         <v>45</v>
       </c>
     </row>
@@ -742,21 +741,21 @@
       <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>3</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="A16" s="8">
+        <v>3</v>
+      </c>
+      <c r="B16" s="9">
         <v>5</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>74</v>
       </c>
     </row>
@@ -785,7 +784,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C16" sqref="A13:C16"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,167 +801,167 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>12</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>12</v>
       </c>
-      <c r="B3" s="16">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>12</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>4</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>12</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>5</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>12</v>
       </c>
-      <c r="B6" s="16">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="B7" s="18">
+        <v>3</v>
+      </c>
+      <c r="C7" s="19">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>6</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>25</v>
       </c>
-      <c r="B11" s="22">
-        <v>2</v>
-      </c>
-      <c r="C11" s="23">
+      <c r="B11" s="21">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>25</v>
       </c>
-      <c r="B12" s="22">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="B12" s="21">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>8</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>5</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>8</v>
       </c>
-      <c r="B14" s="25">
-        <v>2</v>
-      </c>
-      <c r="C14" s="26">
+      <c r="B14" s="24">
+        <v>2</v>
+      </c>
+      <c r="C14" s="25">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>8</v>
       </c>
-      <c r="B15" s="25">
-        <v>3</v>
-      </c>
-      <c r="C15" s="26">
+      <c r="B15" s="24">
+        <v>3</v>
+      </c>
+      <c r="C15" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>8</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>5</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>74</v>
       </c>
     </row>
